--- a/Cost Model.xlsx
+++ b/Cost Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Box Sync\Projects\Mfg_Ops_Excel_Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BB2D9C-9BCB-4B74-A883-D6C28E16597B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0245F0-94B9-43B1-A4AC-87197B96B822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="1575" windowWidth="35760" windowHeight="14580" tabRatio="793" xr2:uid="{9DD4A102-5F6B-46DA-8541-48C3A19AE79F}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="29108" windowHeight="14865" tabRatio="793" xr2:uid="{9DD4A102-5F6B-46DA-8541-48C3A19AE79F}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="365" r:id="rId1"/>
@@ -394,7 +394,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1771,7 +1771,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1891,25 +1891,16 @@
     <xf numFmtId="168" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2244,7 +2235,7 @@
       <selection activeCell="G7" sqref="G7"/>
       <selection pane="topRight" activeCell="G7" sqref="G7"/>
       <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.45"/>
@@ -2253,9 +2244,9 @@
     <col min="2" max="2" width="7.59765625" customWidth="1"/>
     <col min="3" max="3" width="37.46484375" style="51" customWidth="1"/>
     <col min="4" max="4" width="25.06640625" customWidth="1"/>
-    <col min="5" max="5" width="13.73046875" customWidth="1"/>
+    <col min="5" max="5" width="11.73046875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.796875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="82.59765625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="153.59765625" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="8" max="8" width="4.59765625" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="14.86328125" style="61" customWidth="1"/>
     <col min="10" max="10" width="16.3984375" customWidth="1"/>
@@ -2312,17 +2303,16 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="94" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="93" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" s="79" t="s">
         <v>320</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C4" s="51" t="s">
@@ -2436,7 +2426,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="90" t="s">
+      <c r="C10" s="88" t="s">
         <v>256</v>
       </c>
       <c r="D10" s="37" t="s">
@@ -2461,7 +2451,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="C11" s="90" t="s">
+      <c r="C11" s="88" t="s">
         <v>257</v>
       </c>
       <c r="D11" s="36" t="s">
@@ -3574,11 +3564,11 @@
       </c>
     </row>
     <row r="81" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A81" s="91" t="s">
+      <c r="A81" s="89" t="s">
         <v>316</v>
       </c>
-      <c r="B81" s="91"/>
-      <c r="C81" s="92"/>
+      <c r="B81" s="89"/>
+      <c r="C81" s="90"/>
       <c r="D81" s="33"/>
       <c r="E81" s="33"/>
       <c r="F81" s="13"/>
@@ -4050,22 +4040,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="30.59765625" style="85" customWidth="1"/>
-    <col min="2" max="2" width="12.265625" style="85" customWidth="1"/>
+    <col min="1" max="1" width="30.59765625" customWidth="1"/>
+    <col min="2" max="2" width="12.265625" customWidth="1"/>
     <col min="3" max="3" width="19.06640625" customWidth="1"/>
     <col min="4" max="4" width="17.265625" customWidth="1"/>
-    <col min="5" max="5" width="10.46484375" style="85" customWidth="1"/>
+    <col min="5" max="5" width="10.46484375" customWidth="1"/>
     <col min="6" max="6" width="17.06640625" customWidth="1"/>
     <col min="7" max="7" width="21.1328125" customWidth="1"/>
     <col min="8" max="8" width="21.9296875" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="24.53125" style="85" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="10.265625" style="85" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="12.19921875" style="85" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="15.796875" style="85" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="17.86328125" style="85" customWidth="1"/>
-    <col min="14" max="14" width="11.46484375" style="85" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="15.6640625" style="85" customWidth="1"/>
-    <col min="16" max="16384" width="9.06640625" style="85"/>
+    <col min="9" max="9" width="24.53125" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="10.265625" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="12.19921875" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="15.796875" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="17.86328125" customWidth="1"/>
+    <col min="14" max="14" width="11.46484375" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
@@ -4589,16 +4578,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10" style="86" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" style="86" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.3984375" style="86" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.73046875" style="87" customWidth="1"/>
-    <col min="5" max="5" width="19.1328125" style="86" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.265625" style="86" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.06640625" style="88" customWidth="1"/>
-    <col min="8" max="8" width="15.1328125" style="89" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.3984375" style="86" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="85"/>
+    <col min="1" max="1" width="10" style="85" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="85" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" style="85" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.73046875" style="86" customWidth="1"/>
+    <col min="5" max="5" width="19.1328125" style="85" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.265625" style="85" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.06640625" style="51" customWidth="1"/>
+    <col min="8" max="8" width="15.1328125" style="87" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.3984375" style="85" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
@@ -4673,7 +4661,7 @@
       <c r="G3" s="12"/>
       <c r="H3" s="6"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="86"/>
+      <c r="J3" s="85"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
@@ -4693,7 +4681,7 @@
       <c r="G4" s="12"/>
       <c r="H4" s="6"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="86"/>
+      <c r="J4" s="85"/>
     </row>
     <row r="5" spans="1:10" ht="24" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
@@ -4717,7 +4705,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="6"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="86"/>
+      <c r="J5" s="85"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
@@ -4741,7 +4729,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="6"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="86"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
@@ -4763,7 +4751,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="6"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="86"/>
+      <c r="J7" s="85"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
@@ -4777,7 +4765,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="6"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="86"/>
+      <c r="J8" s="85"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
@@ -4803,7 +4791,7 @@
         <v>47</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="86"/>
+      <c r="J9" s="85"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
@@ -4825,7 +4813,7 @@
         <v>49</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="86"/>
+      <c r="J10" s="85"/>
     </row>
     <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
@@ -4849,7 +4837,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="6"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="86"/>
+      <c r="J11" s="85"/>
     </row>
     <row r="12" spans="1:10" ht="24" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
@@ -4875,7 +4863,7 @@
         <v>47</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="86"/>
+      <c r="J12" s="85"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
@@ -4901,7 +4889,7 @@
         <v>47</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="86"/>
+      <c r="J13" s="85"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
@@ -4944,7 +4932,7 @@
         <v>49</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="86"/>
+      <c r="J15" s="85"/>
     </row>
     <row r="16" spans="1:10" ht="24" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
@@ -4968,7 +4956,7 @@
       <c r="G16" s="12"/>
       <c r="H16" s="6"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="86"/>
+      <c r="J16" s="85"/>
     </row>
     <row r="17" spans="1:10" ht="24" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
@@ -4994,7 +4982,7 @@
         <v>47</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="86"/>
+      <c r="J17" s="85"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
@@ -5020,7 +5008,7 @@
         <v>47</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="86"/>
+      <c r="J18" s="85"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
